--- a/Outputs_study2/WithinAnalysis_GPT3.5.xlsx
+++ b/Outputs_study2/WithinAnalysis_GPT3.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Nature human behavior\Final version\Data and Code\Outputs_study2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Scientific reports\Data and Code\Outputs_study2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208654BB-143C-49B5-8E18-9D2E7D36EBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FA9BDD-75A1-48DF-A852-B6FE65886844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="15563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>frame</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>ci_up</t>
+  </si>
+  <si>
+    <t>p_adj</t>
   </si>
   <si>
     <t>6 lives (fair)</t>
@@ -442,15 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,21 +478,24 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>3.9207842352784299</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>8.8261263468059097E-5</v>
       </c>
       <c r="F2">
@@ -495,21 +504,24 @@
       <c r="G2">
         <v>4.0580091619266101</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="1">
+        <v>2.6478379040417699E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>2.2404481344448199</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>2.5061844343883501E-2</v>
       </c>
       <c r="F3">
@@ -518,21 +530,24 @@
       <c r="G3">
         <v>2.3776730610930001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" s="1">
+        <v>3.7592766515825202E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>5.6011203361120403</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>2.1297081875815098E-8</v>
       </c>
       <c r="F4">
@@ -541,16 +556,19 @@
       <c r="G4">
         <v>5.7383452627602196</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="1">
+        <v>2.5556498250978198E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0.84016805041680598</v>
@@ -564,16 +582,19 @@
       <c r="G5">
         <v>0.97739297706498696</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>0.43725182114501898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>-0.28005601680560199</v>
@@ -587,16 +608,19 @@
       <c r="G6">
         <v>-0.14283109015742099</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <v>0.77943452842727501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0.84016805041680598</v>
@@ -610,21 +634,24 @@
       <c r="G7">
         <v>0.97739297706498696</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7">
+        <v>0.43725182114501898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>3.3606722016672199</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>7.7753044694039996E-4</v>
       </c>
       <c r="F8">
@@ -633,21 +660,24 @@
       <c r="G8">
         <v>3.4978971283154099</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="1">
+        <v>1.5550608938807999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>3.9207842352784299</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>8.8261263468059097E-5</v>
       </c>
       <c r="F9">
@@ -656,16 +686,19 @@
       <c r="G9">
         <v>4.0580091619266101</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="1">
+        <v>2.6478379040417699E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>0.84016805041680598</v>
@@ -679,21 +712,24 @@
       <c r="G10">
         <v>0.97739297706498696</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10">
+        <v>0.43725182114501898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>2.8266058270340699</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>4.7044196567800301E-3</v>
       </c>
       <c r="F11">
@@ -702,21 +738,24 @@
       <c r="G11">
         <v>2.9421722286050902</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" s="1">
+        <v>8.0647194116229195E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>3.7449966622147999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>1.8039617405407599E-4</v>
       </c>
       <c r="F12">
@@ -725,21 +764,24 @@
       <c r="G12">
         <v>3.85787722477018</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" s="1">
+        <v>4.3295081772978198E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>4.3021000123345603</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>1.6918690840084201E-5</v>
       </c>
       <c r="F13">
@@ -747,6 +789,9 @@
       </c>
       <c r="G13">
         <v>4.4360950365785801</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.01512145040505E-4</v>
       </c>
     </row>
   </sheetData>
